--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa\Documents\UiPath\UtilityVoucherCreation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874A4D8C-51DA-45F1-92E4-198F35C535F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699F626-6135-4836-AE55-060DE5386957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -276,14 +276,86 @@
     <t>prod_mailfolderPath</t>
   </si>
   <si>
+    <t>DevOutlookFolderPath</t>
+  </si>
+  <si>
+    <t>prod_outlookMailFolderPath</t>
+  </si>
+  <si>
     <t>Inbox\Testing\Non-Stock\UtilityBill</t>
+  </si>
+  <si>
+    <t>CombinedCompanyList</t>
+  </si>
+  <si>
+    <t>American Taste Restaurant Management LLC,Gourmet Burger Investment LLC,Asia Taste Restaurants Management LLC</t>
+  </si>
+  <si>
+    <t>SingleCompanyList</t>
+  </si>
+  <si>
+    <t>Food Quest Restaurants Management LLC,Advance Restaurants Management LLC,Advance Investment LLC</t>
+  </si>
+  <si>
+    <t>ChequeTrackerPath_AdvanceRest</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\Testing\BotSideFiles\Templates\Emirates NBD Tracker Reconciliation.xlsm</t>
+  </si>
+  <si>
+    <t>ChequeTrackerPath_FoddQuestRak</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\Testing\BotSideFiles\Templates\RAKBankTracker.xlsm</t>
+  </si>
+  <si>
+    <t>ChequeTrackerPath_FoodQuest</t>
+  </si>
+  <si>
+    <t>C:\Users\rpa\Documents\Testing\BotSideFiles\Templates\ADIB Bank tracker.xlsm</t>
+  </si>
+  <si>
+    <t>ChequeTracker_SheetName</t>
+  </si>
+  <si>
+    <t>Cheque Tracker</t>
+  </si>
+  <si>
+    <t>AnalysisCodeMultiCompany</t>
+  </si>
+  <si>
+    <t>100.280000.1099</t>
+  </si>
+  <si>
+    <t>Bool_FoodQuestSecondaryFlag</t>
+  </si>
+  <si>
+    <t>FoodQuestBankName</t>
+  </si>
+  <si>
+    <t>ADIB BANK</t>
+  </si>
+  <si>
+    <t>advanceBankName</t>
+  </si>
+  <si>
+    <t>Emirates NBD</t>
+  </si>
+  <si>
+    <t>BankAccountNumberAdvance</t>
+  </si>
+  <si>
+    <t>BankAccountNumberFoodQuest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -316,6 +388,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -344,13 +423,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1701,7 +1782,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A32" sqref="A32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2062,32 +2143,124 @@
       <c r="A46" t="s">
         <v>79</v>
       </c>
-      <c r="B46" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1015176460901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="7">
+        <v>15608824</v>
+      </c>
+    </row>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
